--- a/downloads/excel-templates/topics_template.xlsx
+++ b/downloads/excel-templates/topics_template.xlsx
@@ -1,80 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\exam\public\downloads\excel-templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>John</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Topic Id to maintain the parent child relation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Parent Topic of this topic i.e ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Copy the valid subject id from subjects master
-These topics will be under the specific subject id</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>subject_id</t>
   </si>
@@ -107,26 +50,22 @@
   </si>
   <si>
     <t>Formulas for this chapter</t>
+  </si>
+  <si>
+    <t>semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -211,7 +150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,10 +182,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +216,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,16 +391,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -471,16 +411,19 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -488,16 +431,19 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -508,13 +454,16 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -522,40 +471,42 @@
         <v>9</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/downloads/excel-templates/topics_template.xlsx
+++ b/downloads/excel-templates/topics_template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\awd\xampp\htdocs\schoolsysrepo\downloads\excel-templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -12,12 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>subject_id</t>
   </si>
@@ -52,14 +56,20 @@
     <t>Formulas for this chapter</t>
   </si>
   <si>
-    <t>semester</t>
+    <t>semester_num</t>
+  </si>
+  <si>
+    <t>course_id</t>
+  </si>
+  <si>
+    <t>academic_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,7 +160,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -182,9 +192,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -391,19 +403,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -420,10 +436,16 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -439,11 +461,17 @@
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -459,11 +487,17 @@
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -479,7 +513,13 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -489,24 +529,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
